--- a/publipostage/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00786305</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Assessment of Efficiency of Nebulized Ceftazidime and Amikacin in Treatment of Ventilator Associated Pneumonia Caused by Pseudomonas Aeruginosa</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00786305</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Assessment of Efficiency of Nebulized Ceftazidime and Amikacin in Treatment of Ventilator Associated Pneumonia Caused by Pseudomonas Aeruginosa</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02055261</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Effects of Low Frequency Deep Brain Stimulation of the Pedunculopontine Nucleus on Gait and Balance Disorders of Parkinson's Disease</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,32 +607,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT01457248</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Effect of Endotracheal Tube With Taper-shaped Cuff on Incidence of Postoperative Pneumonia After Aortic Surgery</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>TETRIS</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -624,32 +649,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT01457248</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Effect of Endotracheal Tube With Taper-shaped Cuff on Incidence of Postoperative Pneumonia After Aortic Surgery</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>TETRIS</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -661,32 +691,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02554370</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Psychoeducational Programme for Patients With Parkinson's Disease Undergoing Subthalamic Deep Brain Stimulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>PSYCHE</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -698,32 +733,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT02554370</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Psychoeducational Programme for Patients With Parkinson's Disease Undergoing Subthalamic Deep Brain Stimulation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>PSYCHE</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -735,34 +775,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT03671161</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Combination of Flash Glucose Measure System and Continuous Subcutaneous Insulin Infusion Therapy in Patients With Type 1 Diabetes and Poor Glycemic Control Related to Very Few Self-blood Glucose Measurements</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>FREESTYLE</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -772,34 +817,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT03671161</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Combination of Flash Glucose Measure System and Continuous Subcutaneous Insulin Infusion Therapy in Patients With Type 1 Diabetes and Poor Glycemic Control Related to Very Few Self-blood Glucose Measurements</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>FREESTYLE</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -809,32 +859,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT04035655</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sub-study of the NEURODOC Project (Electrophysiological Evaluation of Consciousness in Patients With Disorders of Consciousness During Standard Care Procedures): Neurophysiological Evaluation of a Routine Care Open Label tDCS Session</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Neurodoc</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -846,32 +901,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT04035655</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sub-study of the NEURODOC Project (Electrophysiological Evaluation of Consciousness in Patients With Disorders of Consciousness During Standard Care Procedures): Neurophysiological Evaluation of a Routine Care Open Label tDCS Session</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Neurodoc</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -883,24 +943,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT00139308</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Pilot Study of Internal Globus Pallidus or Median Centre of the Thalamus High Frequency Stimulation for the Treatment of Patients With Severe Tourette's Syndrome</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +977,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT00139308</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Pilot Study of Internal Globus Pallidus or Median Centre of the Thalamus High Frequency Stimulation for the Treatment of Patients With Severe Tourette's Syndrome</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>

--- a/publipostage/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -682,6 +707,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +754,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -766,6 +801,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,6 +848,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -850,6 +895,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -892,6 +942,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -933,6 +988,11 @@
       </c>
       <c r="J12" t="b">
         <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -968,6 +1028,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1001,6 +1066,11 @@
       </c>
       <c r="J14" t="b">
         <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
   </sheetData>
